--- a/file/xxx2.xlsx
+++ b/file/xxx2.xlsx
@@ -6,12 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="14220" windowHeight="10020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ccc_sheet_2222" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ccc_sheet_2221" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ccc_sheet_222" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ccc_sheet" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="sheet1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="xlhide" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="ccc_sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="xlhide" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="专技">xlhide!$A$2:$A$2</definedName>
@@ -61,29 +58,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -99,6 +74,13 @@
       <name val="宋体"/>
       <charset val="134"/>
       <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -113,36 +95,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
       <sz val="11"/>
@@ -150,17 +102,23 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -189,15 +147,40 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -209,15 +192,29 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -237,7 +234,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,13 +258,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,7 +300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,13 +312,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,109 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,24 +593,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -635,6 +614,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -646,17 +640,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,17 +659,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,158 +701,158 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="16" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="16" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="16" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="20" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="19" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -890,10 +887,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -918,25 +915,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -945,7 +942,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -964,10 +961,10 @@
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3 2 2" xfId="2"/>
-    <cellStyle name="常规 3 2 2 2" xfId="3"/>
-    <cellStyle name="常规 5" xfId="4"/>
+    <cellStyle name="常规 5" xfId="1"/>
+    <cellStyle name="常规 3 2 2 2" xfId="2"/>
+    <cellStyle name="常规 3 2 2" xfId="3"/>
+    <cellStyle name="常规 2" xfId="4"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="5" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="6" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="7" builtinId="41"/>
@@ -1379,42 +1376,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1424,34 +1385,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>title1</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>title2</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>title_value3</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>数据4</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>数据5</t>
         </is>
       </c>
-      <c r="C2" s="0" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>数据6_1</t>
         </is>
@@ -1479,47 +1440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>title_value3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>数据6_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>数据12_1</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8579,7 +8500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/file/xxx2.xlsx
+++ b/file/xxx2.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9940" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="9940" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="ccc_sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="xlhide" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="ccc_sheet_0705" sheetId="2" r:id="rId1"/>
+    <sheet name="ccc_sheet" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="xlhide" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="专技">xlhide!$A$2:$A$2</definedName>
@@ -22,15 +23,72 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>title1</t>
+  </si>
+  <si>
+    <t>title2</t>
+  </si>
+  <si>
+    <t>title3</t>
+  </si>
+  <si>
+    <t>title4</t>
+  </si>
+  <si>
+    <t>title5</t>
+  </si>
+  <si>
+    <t>title6</t>
+  </si>
+  <si>
+    <t>title7</t>
+  </si>
+  <si>
+    <t>title8</t>
+  </si>
+  <si>
+    <t>title9</t>
+  </si>
+  <si>
+    <t>title10_value</t>
+  </si>
+  <si>
+    <t>数据gw2</t>
+  </si>
+  <si>
+    <t>数据type1</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>数据sf</t>
+  </si>
+  <si>
+    <t>数据yq1</t>
+  </si>
+  <si>
+    <t>数据2yq_2</t>
+  </si>
+  <si>
+    <t>数据zy2_1</t>
+  </si>
+  <si>
+    <t>数据gw5</t>
+  </si>
+  <si>
+    <t>数据type2</t>
+  </si>
+  <si>
+    <t>数据zy1_1</t>
+  </si>
+  <si>
     <t>title0</t>
   </si>
   <si>
-    <t>title1</t>
-  </si>
-  <si>
-    <t>title2</t>
-  </si>
-  <si>
     <t>title_value3</t>
   </si>
   <si>
@@ -58,33 +116,6 @@
     <t>数据16_1</t>
   </si>
   <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>title3</t>
-  </si>
-  <si>
-    <t>title4</t>
-  </si>
-  <si>
-    <t>title5</t>
-  </si>
-  <si>
-    <t>title6</t>
-  </si>
-  <si>
-    <t>title7</t>
-  </si>
-  <si>
-    <t>title8</t>
-  </si>
-  <si>
-    <t>title9</t>
-  </si>
-  <si>
-    <t>title10_value</t>
-  </si>
-  <si>
     <t>数据dw1</t>
   </si>
   <si>
@@ -97,30 +128,9 @@
     <t>数据gw1</t>
   </si>
   <si>
-    <t>数据type1</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>数据sf</t>
-  </si>
-  <si>
-    <t>数据yq1</t>
-  </si>
-  <si>
-    <t>数据2yq_2</t>
-  </si>
-  <si>
     <t>数据zy1</t>
   </si>
   <si>
-    <t>数据gw2</t>
-  </si>
-  <si>
-    <t>数据zy2_1</t>
-  </si>
-  <si>
     <t>数据gw3</t>
   </si>
   <si>
@@ -134,15 +144,6 @@
   </si>
   <si>
     <t>数据gw4</t>
-  </si>
-  <si>
-    <t>数据gw5</t>
-  </si>
-  <si>
-    <t>数据type2</t>
-  </si>
-  <si>
-    <t>数据zy1_1</t>
   </si>
   <si>
     <t>数据dw4</t>
@@ -236,8 +237,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -278,13 +279,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,21 +301,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,14 +338,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -361,22 +356,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,7 +407,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,7 +415,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,21 +427,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -442,13 +443,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,168 +473,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -645,9 +646,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -655,6 +654,41 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -675,10 +709,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -724,21 +758,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -750,17 +769,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,163 +787,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -943,38 +977,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1329,6 +1353,116 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1339,7 +1473,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1348,35 +1482,35 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1385,18 +1519,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1" ht="17.6" spans="1:12">
+    <row r="1" ht="17.6" customHeight="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1412,506 +1546,506 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="B4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>28</v>
+      <c r="H4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="3">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>28</v>
+      <c r="H5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="3">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="B6" s="9"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8">
         <v>1</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>28</v>
+      <c r="H6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="3">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="6">
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="8">
         <v>1</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>28</v>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="3">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="6" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="8">
         <v>2</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>28</v>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="3">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="F11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="8">
         <v>2</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>28</v>
+      <c r="H11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="8">
         <v>2</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>28</v>
+      <c r="H12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>34</v>
+      <c r="L12" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="8">
         <v>2</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>28</v>
+      <c r="H13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>34</v>
+      <c r="L13" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="8">
         <v>2</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="6" t="s">
+      <c r="H14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>60</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>34</v>
+      <c r="L14" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3">
+      <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="8">
         <v>2</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="H15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="8" t="s">
         <v>60</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>34</v>
+      <c r="L15" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3">
+      <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="8">
         <v>2</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="H16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="8" t="s">
         <v>60</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>34</v>
+      <c r="L16" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1942,7 +2076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:A2"/>

--- a/file/xxx2.xlsx
+++ b/file/xxx2.xlsx
@@ -6,11 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="25600" windowHeight="9940" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ccc_sheet_0708" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ccc_sheet_ccc2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ccc_sheet_ccc" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="xlhide" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="ccc_sheet_ccc2xlsx" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ccc_sheet_cccxlsx" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ccc_sheet_0708" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ccc_sheet_ccc2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ccc_sheet_ccc" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="xlhide" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="专技">xlhide!$A$2:$A$2</definedName>
@@ -1230,6 +1232,1038 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>title1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>title2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>title3</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>title4</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>title5</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>title6</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>title7</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>title8</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>title9</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>title10_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>数据dw1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>数据dw2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>数据cz1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>数据gw2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>数据type1</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>数据sf</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>数据yq1</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>数据2yq_2</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>数据zy2_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>数据dw1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>数据dw3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>数据cz2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>数据gw5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>数据type2</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>数据sf</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>数据yq1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>数据2yq_2</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>数据zy1_1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>title1</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>title1</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>title2</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>title3</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>title4</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>title5</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>title6</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>title7</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>title8</t>
+        </is>
+      </c>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>title9</t>
+        </is>
+      </c>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>title10_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>数据dw1</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>数据dw2</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>数据cz1</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>数据gw1</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>数据type1</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>数据sf</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>数据yq1</t>
+        </is>
+      </c>
+      <c r="K3" s="0" t="inlineStr">
+        <is>
+          <t>数据2yq_2</t>
+        </is>
+      </c>
+      <c r="L3" s="0" t="inlineStr">
+        <is>
+          <t>数据zy1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>数据dw1</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>数据dw2</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>数据cz1</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>数据gw2</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>数据type1</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>数据sf</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>数据yq1</t>
+        </is>
+      </c>
+      <c r="K4" s="0" t="inlineStr">
+        <is>
+          <t>数据2yq_2</t>
+        </is>
+      </c>
+      <c r="L4" s="0" t="inlineStr">
+        <is>
+          <t>数据zy2_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>数据dw1</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>数据dw2</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>数据cz1</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>数据gw3</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>数据type1</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>数据sf</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>数据yq1</t>
+        </is>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t>数据2yq_2</t>
+        </is>
+      </c>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t>数据zy2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>数据dw1</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>数据dw3</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>数据cz2</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>数据gw4</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>数据type1</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>数据sf</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>数据yq1</t>
+        </is>
+      </c>
+      <c r="K6" s="0" t="inlineStr">
+        <is>
+          <t>数据2yq_2</t>
+        </is>
+      </c>
+      <c r="L6" s="0" t="inlineStr">
+        <is>
+          <t>数据zy2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>数据dw1</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>数据dw3</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>数据cz2</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>数据gw5</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>数据type2</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>数据sf</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>数据yq1</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>数据2yq_2</t>
+        </is>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>数据zy1_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>数据dw1</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>数据dw4</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>数据cz3</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>数据gw6</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>数据type2</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>数据sf</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>数据yq1</t>
+        </is>
+      </c>
+      <c r="K8" s="0" t="inlineStr">
+        <is>
+          <t>数据2yq_2</t>
+        </is>
+      </c>
+      <c r="L8" s="0" t="inlineStr">
+        <is>
+          <t>数据zy2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>数据dw1</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>数据dw4</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>数据cz3</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>数据gw7</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>数据type2</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>数据sf</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>数据yq1</t>
+        </is>
+      </c>
+      <c r="K9" s="0" t="inlineStr">
+        <is>
+          <t>数据2yq_2</t>
+        </is>
+      </c>
+      <c r="L9" s="0" t="inlineStr">
+        <is>
+          <t>数据zy2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>数据dw1</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>数据dw5</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>数据cz4</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>数据gw8</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>数据type2</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>数据sf</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>数据yq1</t>
+        </is>
+      </c>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t>数据2yq_2</t>
+        </is>
+      </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>数据zy2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>数据dw1</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>数据dw6</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>数据cz5</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>数据gw9</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>数据type3</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>数据sf</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>数据yq1</t>
+        </is>
+      </c>
+      <c r="K11" s="0" t="inlineStr">
+        <is>
+          <t>数据2yq_1</t>
+        </is>
+      </c>
+      <c r="L11" s="0" t="inlineStr">
+        <is>
+          <t>数据zy2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>数据dw1</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>数据dw7</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>数据cz6</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>数据gw10</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>数据type3</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>数据sf</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>数据yq1</t>
+        </is>
+      </c>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t>数据2yq_1</t>
+        </is>
+      </c>
+      <c r="L12" s="0" t="inlineStr">
+        <is>
+          <t>数据zy2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>数据dw8</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>数据dw9</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>数据cz7</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>数据gw11</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>数据type3</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>数据sf</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>数据yq2</t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
+        <is>
+          <t>数据2yq_1</t>
+        </is>
+      </c>
+      <c r="L13" s="0" t="inlineStr">
+        <is>
+          <t>数据zy2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>数据dw8</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>数据dw9</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>数据cz8</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>数据gw12</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>数据type3</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>数据sf2</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>数据yq2</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>数据2yq_1</t>
+        </is>
+      </c>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t>数据zy2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>数据dw8</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>数据dw10</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>数据cz9</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>数据gw13</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>数据type3</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>数据sf2</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>数据yq2</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>数据2yq_1</t>
+        </is>
+      </c>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>数据zy2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1239,30 +2273,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>John Brown</t>
         </is>
       </c>
-      <c r="B1" t="n">
+      <c r="B1" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>New York No. 1 Lake Park</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>John Brown2</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="0" t="inlineStr">
         <is>
           <t>New York No. 1 Lake Park2</t>
         </is>
@@ -1273,7 +2307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1470,7 +2504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2305,7 +3339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3106,7 +4140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/file/xxx2.xlsx
+++ b/file/xxx2.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9940"/>
+    <workbookView windowWidth="25600" windowHeight="9840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="8" r:id="rId1"/>
-    <sheet name="xlhide" sheetId="9" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId3"/>
+    <sheet name="xlhide" sheetId="9" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="专技">xlhide!$A$2:$A$2</definedName>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>序号</t>
   </si>
@@ -190,6 +192,75 @@
   </si>
   <si>
     <t>数据gw13</t>
+  </si>
+  <si>
+    <t>测试列1</t>
+  </si>
+  <si>
+    <t>测试列2</t>
+  </si>
+  <si>
+    <t>测试列3</t>
+  </si>
+  <si>
+    <t>测试列4</t>
+  </si>
+  <si>
+    <t>测试列5</t>
+  </si>
+  <si>
+    <t>用例1</t>
+  </si>
+  <si>
+    <t>1=1</t>
+  </si>
+  <si>
+    <t>1=2</t>
+  </si>
+  <si>
+    <t>1=3</t>
+  </si>
+  <si>
+    <t>1=4</t>
+  </si>
+  <si>
+    <t>1=5</t>
+  </si>
+  <si>
+    <t>用例2</t>
+  </si>
+  <si>
+    <t>2=1</t>
+  </si>
+  <si>
+    <t>2=2</t>
+  </si>
+  <si>
+    <t>2=3</t>
+  </si>
+  <si>
+    <t>2=4</t>
+  </si>
+  <si>
+    <t>2=5</t>
+  </si>
+  <si>
+    <t>用例3</t>
+  </si>
+  <si>
+    <t>3=1</t>
+  </si>
+  <si>
+    <t>3=2</t>
+  </si>
+  <si>
+    <t>3=3</t>
+  </si>
+  <si>
+    <t>3=4</t>
+  </si>
+  <si>
+    <t>3=5</t>
   </si>
   <si>
     <t>综合</t>
@@ -203,10 +274,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -239,14 +310,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,24 +331,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,7 +348,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,6 +384,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -312,6 +422,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -329,72 +461,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -411,31 +482,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,145 +656,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,7 +758,27 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -711,8 +802,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,205 +852,172 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1323,527 +1396,527 @@
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <sheetData>
     <row r="1" ht="17.6" customHeight="1" spans="1:12">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="7">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="7">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="7">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="8" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="7">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="7">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="8" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="7">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="10">
         <v>1</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="7">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="8" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="10">
         <v>2</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="7">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="10">
         <v>2</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="7">
+      <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="10">
         <v>2</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="7">
+      <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="10">
         <v>2</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="7">
+      <c r="A14" s="9">
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="10">
         <v>2</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="7">
+      <c r="A15" s="9">
         <v>12</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="7" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="10">
         <v>2</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="7">
+      <c r="A16" s="9">
         <v>13</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="10">
         <v>2</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1878,6 +1951,133 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1888,12 +2088,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
